--- a/sdsadas.xlsx
+++ b/sdsadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A5ACEC-52B7-4F05-8523-6F0173864B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08731965-9B0A-48F9-B32F-C3B279581902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">Sygedage </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,77 +431,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>5</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>12</v>
       </c>
     </row>
